--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-04_to_2025-01-14.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-04_to_2025-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H381"/>
+  <dimension ref="A1:H358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,10 +509,8 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -535,10 +533,8 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +557,8 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -595,10 +589,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -635,10 +627,8 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -669,10 +659,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -703,10 +691,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -741,10 +727,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -775,10 +759,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -809,10 +791,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -847,10 +827,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -881,10 +859,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -929,10 +905,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -967,10 +941,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1001,10 +973,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1009,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1073,10 +1041,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1107,10 +1073,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1145,10 +1109,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1183,10 +1145,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1221,10 +1181,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1259,10 +1217,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1297,10 +1253,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1335,10 +1289,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1373,10 +1325,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1403,10 +1353,8 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1433,10 +1381,8 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1463,10 +1409,8 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1493,10 +1437,8 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1523,10 +1465,8 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1553,10 +1493,8 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1583,10 +1521,8 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1613,10 +1549,8 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1643,10 +1577,8 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1673,10 +1605,8 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1703,10 +1633,8 @@
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1733,10 +1661,8 @@
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1767,10 +1693,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1805,10 +1729,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1843,10 +1765,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1877,10 +1797,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1911,10 +1829,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1945,10 +1861,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1979,10 +1893,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2017,10 +1929,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2055,10 +1965,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2093,10 +2001,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2127,10 +2033,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2157,10 +2061,8 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2187,10 +2089,8 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2217,10 +2117,8 @@
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2243,10 +2141,8 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2277,10 +2173,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2311,10 +2205,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2349,10 +2241,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2387,10 +2277,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2425,10 +2313,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2459,10 +2345,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2489,10 +2373,8 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2519,10 +2401,8 @@
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H64" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2549,10 +2429,8 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2583,10 +2461,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2613,10 +2489,8 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2647,10 +2521,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2685,10 +2557,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2723,10 +2593,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2757,10 +2625,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H71" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2787,10 +2653,8 @@
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -2817,10 +2681,8 @@
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -2843,10 +2705,8 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2873,10 +2733,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H75" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -2903,10 +2761,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -2933,10 +2789,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -2963,10 +2817,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2993,10 +2845,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3015,10 +2865,8 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H80" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3049,10 +2897,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -3093,10 +2939,8 @@
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H83" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -3123,10 +2967,8 @@
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H84" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3161,10 +3003,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3195,10 +3035,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3233,10 +3071,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3271,10 +3107,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3309,10 +3143,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -3339,10 +3171,8 @@
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -3373,10 +3203,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H91" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3407,10 +3235,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H92" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -3441,10 +3267,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -3475,10 +3299,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H94" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -3509,10 +3331,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3543,10 +3363,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3581,10 +3399,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3615,10 +3431,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H98" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -3653,10 +3467,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3683,10 +3495,8 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -3713,10 +3523,8 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -3751,10 +3559,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3789,10 +3595,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3827,10 +3631,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -3861,10 +3663,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -3895,10 +3695,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -3933,10 +3731,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3971,10 +3767,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -4005,10 +3799,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -4039,10 +3831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -4069,10 +3859,8 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -4099,10 +3887,8 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -4133,10 +3919,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -4167,10 +3951,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -4201,10 +3983,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -4227,10 +4007,8 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H116" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -4265,10 +4043,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4299,10 +4075,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -4333,10 +4107,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -4371,10 +4143,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4405,10 +4175,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4439,10 +4207,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4469,10 +4235,8 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -4507,10 +4271,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4545,10 +4307,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4583,10 +4343,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4617,10 +4375,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4651,10 +4407,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -4685,10 +4439,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -4719,10 +4471,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4753,10 +4503,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4783,10 +4531,8 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4813,10 +4559,8 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -4843,10 +4587,8 @@
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4877,10 +4619,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -4915,10 +4655,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -4949,10 +4687,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -4975,10 +4711,8 @@
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -5009,10 +4743,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -5035,10 +4767,8 @@
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -5061,10 +4791,8 @@
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -5087,10 +4815,8 @@
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -5139,10 +4865,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5173,10 +4897,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -5211,10 +4933,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -5249,10 +4969,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H147" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -5283,10 +5001,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H148" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -5321,10 +5037,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -5359,10 +5073,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H150" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -5393,10 +5105,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -5423,10 +5133,8 @@
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -5453,10 +5161,8 @@
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -5491,10 +5197,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H154" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -5529,10 +5233,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5563,10 +5265,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -5601,10 +5301,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -5639,10 +5337,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -5677,10 +5373,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -5711,10 +5405,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -5745,10 +5437,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5775,10 +5465,8 @@
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5809,10 +5497,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H163" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -5839,10 +5525,8 @@
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -5869,10 +5553,8 @@
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -5899,10 +5581,8 @@
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H166" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -5937,10 +5617,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -5975,10 +5653,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -6005,10 +5681,8 @@
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H169" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -6031,10 +5705,8 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -6057,10 +5729,8 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -6083,10 +5753,8 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6109,10 +5777,8 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6147,10 +5813,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6173,10 +5837,8 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -6203,10 +5865,8 @@
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6233,10 +5893,8 @@
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6263,10 +5921,8 @@
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -6293,10 +5949,8 @@
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6323,10 +5977,8 @@
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6353,10 +6005,8 @@
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6383,10 +6033,8 @@
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -6413,10 +6061,8 @@
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6443,10 +6089,8 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -6473,10 +6117,8 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6503,10 +6145,8 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6533,10 +6173,8 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6563,10 +6201,8 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -6597,10 +6233,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -6623,10 +6257,8 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -6661,10 +6293,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -6699,10 +6329,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -6733,10 +6361,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -6763,10 +6389,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -6789,10 +6413,8 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -6815,10 +6437,8 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -6845,10 +6465,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -6883,10 +6501,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6921,10 +6537,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6951,10 +6565,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -6981,10 +6593,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7015,10 +6625,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7045,10 +6653,8 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7075,10 +6681,8 @@
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7101,10 +6705,8 @@
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -7127,10 +6729,8 @@
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7179,10 +6779,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7209,10 +6807,8 @@
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7247,10 +6843,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -7277,10 +6871,8 @@
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7307,10 +6899,8 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7337,10 +6927,8 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7367,10 +6955,8 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7397,10 +6983,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7435,10 +7019,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -7469,10 +7051,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -7499,10 +7079,8 @@
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7529,10 +7107,8 @@
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7559,10 +7135,8 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -7589,10 +7163,8 @@
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -7619,10 +7191,8 @@
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -7653,10 +7223,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -7687,10 +7255,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -7721,10 +7287,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -7747,10 +7311,8 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -7781,10 +7343,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H227" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -7815,10 +7375,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -7853,10 +7411,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -7891,10 +7447,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H230" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -7929,10 +7483,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -7967,10 +7519,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8001,10 +7551,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8035,10 +7583,8 @@
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -8065,10 +7611,8 @@
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8095,10 +7639,8 @@
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8121,10 +7663,8 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -8155,10 +7695,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8189,10 +7727,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8215,10 +7751,8 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8253,10 +7787,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8279,10 +7811,8 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8309,10 +7839,8 @@
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8335,10 +7863,8 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8361,10 +7887,8 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8391,10 +7915,8 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8417,10 +7939,8 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8443,10 +7963,8 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8469,10 +7987,8 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -8495,10 +8011,8 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8521,10 +8035,8 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -8551,10 +8063,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -8585,10 +8095,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -8623,10 +8131,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -8653,10 +8159,8 @@
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -8679,10 +8183,8 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -8709,10 +8211,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -8735,124 +8235,142 @@
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -8864,63 +8382,67 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -8932,177 +8454,181 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -9114,29 +8640,33 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -9148,27 +8678,31 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H271" t="inlineStr">
         <is>
           <t>3</t>
@@ -9178,83 +8712,103 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H274" t="inlineStr">
         <is>
           <t>3</t>
@@ -9264,97 +8818,101 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -9366,29 +8924,29 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -9400,29 +8958,29 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -9434,29 +8992,29 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -9468,209 +9026,173 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
         <is>
           <t>3</t>
@@ -9678,35 +9200,27 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -9716,149 +9230,113 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr"/>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -9870,29 +9348,33 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -9904,173 +9386,137 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -10082,29 +9528,29 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -10116,69 +9562,41 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr">
         <is>
           <t>3</t>
@@ -10188,31 +9606,27 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr">
         <is>
           <t>3</t>
@@ -10222,31 +9636,27 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
         <is>
           <t>3</t>
@@ -10256,87 +9666,95 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
-      <c r="E304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr"/>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H305" t="inlineStr">
         <is>
           <t>3</t>
@@ -10346,27 +9764,31 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr"/>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H306" t="inlineStr">
         <is>
           <t>3</t>
@@ -10374,29 +9796,25 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr">
         <is>
           <t>3</t>
@@ -10404,29 +9822,25 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
           <t>3</t>
@@ -10434,28 +9848,24 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
         <is>
@@ -10464,27 +9874,31 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -10494,29 +9908,25 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
         <is>
           <t>3</t>
@@ -10526,181 +9936,169 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
@@ -10714,23 +10112,23 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -10744,43 +10142,63 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr"/>
-      <c r="C319" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D319" t="inlineStr"/>
-      <c r="E319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr"/>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -10792,7 +10210,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10802,21 +10220,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr">
         <is>
           <t>3</t>
@@ -10826,37 +10240,53 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr"/>
-      <c r="C322" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr"/>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
@@ -10868,25 +10298,21 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -10898,11 +10324,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
           <t>TR</t>
@@ -10910,13 +10332,13 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
@@ -10928,97 +10350,81 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr">
         <is>
           <t>3</t>
@@ -11028,57 +10434,45 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
-      <c r="E330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H330" t="inlineStr">
         <is>
           <t>3</t>
@@ -11088,23 +10482,31 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D331" t="inlineStr"/>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H331" t="inlineStr">
         <is>
           <t>3</t>
@@ -11114,17 +10516,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
@@ -11140,31 +10542,23 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
           <t>3</t>
@@ -11174,23 +10568,31 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
-      <c r="E334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F334" t="inlineStr"/>
-      <c r="G334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H334" t="inlineStr">
         <is>
           <t>3</t>
@@ -11200,23 +10602,31 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
-      <c r="E335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H335" t="inlineStr">
         <is>
           <t>3</t>
@@ -11226,27 +10636,31 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H336" t="inlineStr">
         <is>
           <t>3</t>
@@ -11256,23 +10670,23 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -11286,185 +10700,169 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F343" t="inlineStr"/>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
           <t>3</t>
@@ -11474,87 +10872,95 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
-      <c r="G344" t="inlineStr"/>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr"/>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H346" t="inlineStr">
         <is>
           <t>3</t>
@@ -11562,25 +10968,33 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr"/>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H347" t="inlineStr">
         <is>
           <t>3</t>
@@ -11588,21 +11002,25 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -11614,21 +11032,25 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -11640,27 +11062,31 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr"/>
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -11670,23 +11096,23 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr"/>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D351" t="inlineStr"/>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr">
@@ -11698,43 +11124,59 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -11746,29 +11188,29 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -11780,23 +11222,31 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D355" t="inlineStr"/>
-      <c r="E355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr"/>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H355" t="inlineStr">
         <is>
           <t>3</t>
@@ -11806,23 +11256,31 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H356" t="inlineStr">
         <is>
           <t>3</t>
@@ -11832,772 +11290,50 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F358" t="inlineStr"/>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>WPI Manufacturing YoYDEC</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr"/>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr"/>
-      <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr"/>
-      <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
-      <c r="E363" t="inlineStr"/>
-      <c r="F363" t="inlineStr"/>
-      <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr"/>
-      <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr"/>
-      <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr"/>
-      <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr"/>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>10:05 AM</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="inlineStr"/>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr"/>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
         <is>
           <t>2</t>
         </is>
